--- a/client/public/assets/data/Sample_metadata_template.xlsx
+++ b/client/public/assets/data/Sample_metadata_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih.sharepoint.com/sites/NCI-COMPASS/Shared Documents/Methylation/CBIIT/MethylScape_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D2FF83EE-9751-442C-B886-D4E17C3CA571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E73451-B6E1-4BBE-8E50-C4EE9B060FA4}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{D2FF83EE-9751-442C-B886-D4E17C3CA571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7EF0C27-5DE1-4319-AEDE-50BD0CC02499}"/>
   <bookViews>
-    <workbookView xWindow="33291" yWindow="377" windowWidth="30635" windowHeight="17452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_Sheet" sheetId="1" r:id="rId1"/>
@@ -588,12 +588,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -958,6 +962,25 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.35546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.0703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.92578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.2109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1014,7 +1037,7 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
@@ -1057,7 +1080,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1076,7 +1099,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1095,7 +1118,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1114,7 +1137,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1133,7 +1156,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1152,7 +1175,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1171,7 +1194,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1190,7 +1213,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1209,7 +1232,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1228,7 +1251,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1247,7 +1270,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1266,7 +1289,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1285,7 +1308,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1304,7 +1327,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1323,7 +1346,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1342,7 +1365,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1361,7 +1384,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1380,7 +1403,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1399,7 +1422,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1418,7 +1441,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1437,7 +1460,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1456,7 +1479,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1475,7 +1498,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1494,7 +1517,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1513,7 +1536,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1532,7 +1555,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1551,7 +1574,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1570,7 +1593,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1589,7 +1612,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1608,7 +1631,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1627,7 +1650,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1646,7 +1669,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1665,7 +1688,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1684,7 +1707,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1703,7 +1726,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1722,7 +1745,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1741,7 +1764,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1760,7 +1783,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -1779,7 +1802,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -1798,7 +1821,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -1817,7 +1840,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1836,7 +1859,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="4"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1855,7 +1878,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -1874,7 +1897,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="4"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1893,7 +1916,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -1912,7 +1935,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -1931,7 +1954,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -1950,7 +1973,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="4"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1969,7 +1992,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="4"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -1988,7 +2011,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="4"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2007,7 +2030,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -2026,7 +2049,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="4"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2045,7 +2068,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="4"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2064,7 +2087,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2083,7 +2106,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2102,7 +2125,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="4"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2121,7 +2144,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="4"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2140,7 +2163,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="F66" s="4"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2159,7 +2182,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="4"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2178,7 +2201,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2197,7 +2220,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="4"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2216,7 +2239,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" s="4"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -2235,7 +2258,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -2254,7 +2277,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2273,7 +2296,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -2292,7 +2315,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="4"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -2311,7 +2334,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="4"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -2330,7 +2353,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="4"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -2349,7 +2372,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="4"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -2368,7 +2391,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -2382,12 +2405,34 @@
       <c r="Q78" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QRSvtRmrXpvmPxVWFWSf9MqE5B52j+YP9F8R+866VqhRcgLYPGNRGT7+7EpQ6QR/ynBmNtt8avhNdZ+9zAwjfw==" saltValue="2id+Cw7WdA6zKoz4NAHwkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f9a0503-38ae-4166-b431-5fccf196b5d0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a29b9f1f-99aa-43bf-9dd0-188afd1cbf62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100212142D758DF054DB1EB1FDCE866558F" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7ef803e44bae32d73f30e02c9aa8b5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7f9a0503-38ae-4166-b431-5fccf196b5d0" xmlns:ns3="a29b9f1f-99aa-43bf-9dd0-188afd1cbf62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36b288adc7513afff68b706ba4c3061d" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2653,29 +2698,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{793EEC7E-A90F-4EB3-8A3D-589AF5957184}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f9a0503-38ae-4166-b431-5fccf196b5d0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a29b9f1f-99aa-43bf-9dd0-188afd1cbf62" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C3E59-CE38-4C13-8D30-0F78583A7E4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7f9a0503-38ae-4166-b431-5fccf196b5d0"/>
+    <ds:schemaRef ds:uri="a29b9f1f-99aa-43bf-9dd0-188afd1cbf62"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B8162D4-2DAB-46FC-82FE-87883025D2E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2695,22 +2738,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{793EEC7E-A90F-4EB3-8A3D-589AF5957184}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C3E59-CE38-4C13-8D30-0F78583A7E4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7f9a0503-38ae-4166-b431-5fccf196b5d0"/>
-    <ds:schemaRef ds:uri="a29b9f1f-99aa-43bf-9dd0-188afd1cbf62"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{14b77578-9773-42d5-8507-251ca2dc2b06}" enabled="0" method="" siteId="{14b77578-9773-42d5-8507-251ca2dc2b06}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/client/public/assets/data/Sample_metadata_template.xlsx
+++ b/client/public/assets/data/Sample_metadata_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chop2/Projects/nci-webtools-ccr-methylscape/client/public/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C364D-942F-9346-9094-99123A91CBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E08228-8D2A-4F49-A06D-20E2A5AA5793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-3400" windowWidth="51200" windowHeight="28300" xr2:uid="{0DFD0EE7-377D-374B-810F-6F4334EFF393}"/>
+    <workbookView xWindow="4380" yWindow="3180" windowWidth="27640" windowHeight="16940" xr2:uid="{0365CC03-8662-1A4C-B837-516A51130819}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,15 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,228 +459,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B84CBD-BF5D-444A-A399-22868C1364E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B03173D-4009-594A-98A4-CCEB5920825F}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.83203125" style="2"/>
-    <col min="15" max="15" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="2"/>
-    <col min="17" max="17" width="10.83203125" style="3"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7" s="1"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gU3OYWZprGG0bhZJ32MiV70g40mvq0c4g/1IZIBHJIGY39RGlccfUKbgnpZBJNZtH3ycH/6x+4ezWYup66QXZA==" saltValue="293PgXHwVo1PXEEJASR8Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CKb9F6AIoNEPJNvX3rOCRBcHJ7SSWaXGAzesJCtEOqkZaXbZT3rhB0cwqqEgJQPwmvdRJeuBtb2h8wCQNxRI/Q==" saltValue="LoMOdUq7k0X1RDJe2kJABA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/client/public/assets/data/Sample_metadata_template.xlsx
+++ b/client/public/assets/data/Sample_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chop2/Projects/nci-webtools-ccr-methylscape/client/public/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E08228-8D2A-4F49-A06D-20E2A5AA5793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02BDC88-F832-6D43-9A1A-D735229BF2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3180" windowWidth="27640" windowHeight="16940" xr2:uid="{0365CC03-8662-1A4C-B837-516A51130819}"/>
+    <workbookView xWindow="-32980" yWindow="3240" windowWidth="27640" windowHeight="16940" xr2:uid="{12E507E1-3F3C-1948-A503-FEDC1565EF4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Tumor_Site</t>
-  </si>
-  <si>
     <t>PI_Collaborator</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Surgery_date</t>
+  </si>
+  <si>
+    <t>Tumor_site</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,12 +140,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,39 +177,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -258,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -369,13 +372,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -384,6 +380,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -448,112 +451,249 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B03173D-4009-594A-98A4-CCEB5920825F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31706E8D-780F-CE4B-BE6F-25CCC22E374D}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CKb9F6AIoNEPJNvX3rOCRBcHJ7SSWaXGAzesJCtEOqkZaXbZT3rhB0cwqqEgJQPwmvdRJeuBtb2h8wCQNxRI/Q==" saltValue="LoMOdUq7k0X1RDJe2kJABA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>